--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7623A323-9C59-4820-B494-562ADFEBB4F8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{2539A714-0559-4763-A80D-4337288EDF61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8180" yWindow="230" windowWidth="11030" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="8580" yWindow="480" windowWidth="8380" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -729,7 +729,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="114_{2539A714-0559-4763-A80D-4337288EDF61}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B96783-7103-514E-B718-9F657A54EC0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="480" windowWidth="8380" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="3320" yWindow="480" windowWidth="17920" windowHeight="12880" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>イベント</t>
   </si>
@@ -48,9 +42,6 @@
     <t>竹内 聖悟先生</t>
   </si>
   <si>
-    <t>高田 喜郎先生</t>
-  </si>
-  <si>
     <t>中原 潔先生</t>
   </si>
   <si>
@@ -69,9 +60,6 @@
     <t>鵜川 始陽先生</t>
   </si>
   <si>
-    <t>情報事務員</t>
-  </si>
-  <si>
     <t>門田 宏先生</t>
   </si>
   <si>
@@ -82,100 +70,6 @@
   </si>
   <si>
     <t>篠森 敬三先生</t>
-  </si>
-  <si>
-    <t>以西　恭一郎</t>
-  </si>
-  <si>
-    <t>野田　正太郎</t>
-  </si>
-  <si>
-    <t>江川　真菜実</t>
-  </si>
-  <si>
-    <t>石野　杏奈</t>
-  </si>
-  <si>
-    <t>横田　文</t>
-  </si>
-  <si>
-    <t>東　聖</t>
-  </si>
-  <si>
-    <t>新田　雄一郎</t>
-  </si>
-  <si>
-    <t>高橋　慎也</t>
-  </si>
-  <si>
-    <t>高島　歩佳</t>
-  </si>
-  <si>
-    <t>別役　志朗</t>
-  </si>
-  <si>
-    <t>真壁　巧</t>
-  </si>
-  <si>
-    <t>日下　泉</t>
-  </si>
-  <si>
-    <t>堀川　龍也</t>
-  </si>
-  <si>
-    <t>藤田　竜世</t>
-  </si>
-  <si>
-    <t>立岩　宇宙</t>
-  </si>
-  <si>
-    <t>斎藤　大騎</t>
-  </si>
-  <si>
-    <t>小谷　拳聖</t>
-  </si>
-  <si>
-    <t>西森　渉</t>
-  </si>
-  <si>
-    <t>小松　眞子</t>
-  </si>
-  <si>
-    <t>藤沢　元</t>
-  </si>
-  <si>
-    <t>角原　有紀</t>
-  </si>
-  <si>
-    <t>宮尾　将史</t>
-  </si>
-  <si>
-    <t>塩谷　祐佳</t>
-  </si>
-  <si>
-    <t>新川　奈瑠美</t>
-  </si>
-  <si>
-    <t>吉田　翔真</t>
-  </si>
-  <si>
-    <t>丸田　啓太</t>
-  </si>
-  <si>
-    <t>高橋　龍一</t>
-  </si>
-  <si>
-    <t>中島　伶也</t>
-  </si>
-  <si>
-    <t>北村　陽典</t>
-  </si>
-  <si>
-    <t>濵村 昌則先生</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>渡辺　奈実</t>
   </si>
   <si>
     <t>スタッフ2</t>
@@ -184,13 +78,140 @@
   <si>
     <t>スタッフ1</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>塩谷</t>
+  </si>
+  <si>
+    <t>野田</t>
+  </si>
+  <si>
+    <t>石野</t>
+  </si>
+  <si>
+    <t>西森</t>
+  </si>
+  <si>
+    <t>角原</t>
+  </si>
+  <si>
+    <t>三浦</t>
+  </si>
+  <si>
+    <t>吉田</t>
+  </si>
+  <si>
+    <t>渡辺</t>
+  </si>
+  <si>
+    <t>高田 喜朗先生</t>
+  </si>
+  <si>
+    <t>別役</t>
+  </si>
+  <si>
+    <t>高島</t>
+  </si>
+  <si>
+    <t>横田</t>
+  </si>
+  <si>
+    <t>北村</t>
+  </si>
+  <si>
+    <t>小松</t>
+  </si>
+  <si>
+    <t>堀川</t>
+  </si>
+  <si>
+    <t>藤沢</t>
+  </si>
+  <si>
+    <t>日下</t>
+  </si>
+  <si>
+    <t>江川</t>
+  </si>
+  <si>
+    <t>宮尾</t>
+  </si>
+  <si>
+    <t>中島</t>
+  </si>
+  <si>
+    <t>村上 和子先生</t>
+  </si>
+  <si>
+    <t>高橋(龍)</t>
+  </si>
+  <si>
+    <t>高橋(慎)</t>
+  </si>
+  <si>
+    <t>長田さん</t>
+  </si>
+  <si>
+    <t>新田</t>
+  </si>
+  <si>
+    <t>藤田</t>
+  </si>
+  <si>
+    <t>川越さん</t>
+  </si>
+  <si>
+    <t>立岩</t>
+  </si>
+  <si>
+    <t>丸田</t>
+  </si>
+  <si>
+    <t>竹内さん</t>
+  </si>
+  <si>
+    <t>齋藤</t>
+  </si>
+  <si>
+    <t>以西</t>
+  </si>
+  <si>
+    <t>小谷</t>
+  </si>
+  <si>
+    <t>生野</t>
+  </si>
+  <si>
+    <t>東</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩村先生</t>
+  </si>
+  <si>
+    <t>武市さん</t>
+  </si>
+  <si>
+    <t>吉田(妻)</t>
+  </si>
+  <si>
+    <t>松崎(妻)</t>
+  </si>
+  <si>
+    <t>原田 崇司先生</t>
+  </si>
+  <si>
+    <t>濵村 昌則先生</t>
+  </si>
+  <si>
+    <t>四宮先生</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,13 +262,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="HGP創英角ﾎﾟｯﾌﾟ体"/>
@@ -266,6 +280,12 @@
       <color theme="1"/>
       <name val="HG創英角ﾎﾟｯﾌﾟ体"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="HGS創英角ﾎﾟｯﾌﾟ体"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -381,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,26 +411,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,252 +752,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726328AD-67D2-44D0-AF55-CF7AF47CC6F7}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" ht="29" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" thickBot="1">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" ht="19" thickBot="1">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" ht="19" thickBot="1">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" thickBot="1">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" thickBot="1">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" thickBot="1">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" ht="19" thickBot="1">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="19" thickBot="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" thickBot="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" thickBot="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" thickBot="1">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" thickBot="1">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" thickBot="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" thickBot="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" ht="19" thickBot="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="6">
+      <c r="C16" s="1"/>
+      <c r="D16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="6">
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="19" thickBot="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
+      <c r="E17" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B96783-7103-514E-B718-9F657A54EC0E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247065B9-EA89-B946-BE7B-D04E5E7C3321}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="480" windowWidth="17920" windowHeight="12880" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
@@ -401,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -437,6 +437,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,12 +761,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
@@ -907,7 +913,7 @@
       <c r="D9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -924,7 +930,7 @@
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="13" t="s">
         <v>55</v>
       </c>
     </row>
@@ -938,7 +944,7 @@
       <c r="C11" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
@@ -955,7 +961,7 @@
       <c r="C12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="13" t="s">
         <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -972,7 +978,7 @@
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -989,7 +995,7 @@
       <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="12" t="s">
         <v>46</v>
       </c>
       <c r="E14" s="6" t="s">

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{247065B9-EA89-B946-BE7B-D04E5E7C3321}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420AD861-11AC-3F4D-9375-9933E5FE9A51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="480" windowWidth="17920" windowHeight="12880" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="7360" yWindow="460" windowWidth="17920" windowHeight="12880" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,9 +189,6 @@
     <t>岩村先生</t>
   </si>
   <si>
-    <t>武市さん</t>
-  </si>
-  <si>
     <t>吉田(妻)</t>
   </si>
   <si>
@@ -205,6 +202,13 @@
   </si>
   <si>
     <t>四宮先生</t>
+  </si>
+  <si>
+    <t>入交さん</t>
+    <rPh sb="0" eb="1">
+      <t>イリマジr</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -761,7 +765,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -772,7 +776,7 @@
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" thickBot="1">
+    <row r="1" spans="1:5" ht="19" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -867,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" thickBot="1">
@@ -914,7 +918,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" thickBot="1">
@@ -931,7 +935,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" thickBot="1">
@@ -965,7 +969,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" thickBot="1">
@@ -982,7 +986,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" thickBot="1">
@@ -999,7 +1003,7 @@
         <v>46</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" thickBot="1">

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420AD861-11AC-3F4D-9375-9933E5FE9A51}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB404F97-B7F4-0A4B-A82E-8C86AB79EBAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7360" yWindow="460" windowWidth="17920" windowHeight="12880" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="17920" windowHeight="12880" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>イベント</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>繁桝 博昭先生</t>
-  </si>
-  <si>
-    <t>鵜川 始陽先生</t>
   </si>
   <si>
     <t>門田 宏先生</t>
@@ -149,16 +146,10 @@
     <t>高橋(慎)</t>
   </si>
   <si>
-    <t>長田さん</t>
-  </si>
-  <si>
     <t>新田</t>
   </si>
   <si>
     <t>藤田</t>
-  </si>
-  <si>
-    <t>川越さん</t>
   </si>
   <si>
     <t>立岩</t>
@@ -186,29 +177,31 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>岩村先生</t>
-  </si>
-  <si>
-    <t>吉田(妻)</t>
-  </si>
-  <si>
-    <t>松崎(妻)</t>
-  </si>
-  <si>
     <t>原田 崇司先生</t>
   </si>
   <si>
     <t>濵村 昌則先生</t>
   </si>
   <si>
-    <t>四宮先生</t>
-  </si>
-  <si>
     <t>入交さん</t>
-    <rPh sb="0" eb="1">
-      <t>イリマジr</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>吉田 亜矢子さん</t>
+  </si>
+  <si>
+    <t>松崎 梢さん</t>
+  </si>
+  <si>
+    <t>長田 ゆうさん</t>
+  </si>
+  <si>
+    <t>川越 智予さん</t>
+  </si>
+  <si>
+    <t>四宮 有貴先生</t>
+  </si>
+  <si>
+    <t>岩村 聡先生</t>
   </si>
 </sst>
 </file>
@@ -765,7 +758,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -773,7 +766,7 @@
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" thickBot="1">
@@ -781,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -798,10 +791,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>2</v>
@@ -813,10 +806,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>3</v>
@@ -828,33 +821,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="19" thickBot="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" thickBot="1">
@@ -862,16 +853,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>26</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" thickBot="1">
@@ -879,10 +870,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>6</v>
@@ -894,31 +885,31 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:5" ht="19" thickBot="1">
+    <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" thickBot="1">
@@ -926,16 +917,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" thickBot="1">
@@ -943,13 +934,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
@@ -960,16 +951,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D12" s="13" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" thickBot="1">
@@ -977,16 +968,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" thickBot="1">
@@ -994,16 +985,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" thickBot="1">
@@ -1011,13 +1002,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E15" s="6"/>
     </row>
@@ -1026,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="6" t="s">
@@ -1039,11 +1030,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="6"/>
     </row>

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="6_{BF4387CD-E5AA-4A9D-9A8D-82BA5F183361}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{FAC80584-55BB-4481-8E1E-5D1B79A86EB2}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="6_{BF4387CD-E5AA-4A9D-9A8D-82BA5F183361}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0E320D86-0A49-4603-A9E8-67ADBBFC3146}"/>
   <bookViews>
-    <workbookView xWindow="8690" yWindow="120" windowWidth="8800" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="2400" yWindow="750" windowWidth="8800" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>イベント</t>
   </si>
@@ -83,16 +83,10 @@
     <t>村上 和子先生</t>
   </si>
   <si>
-    <t>竹内さん</t>
-  </si>
-  <si>
     <t>原田 崇司先生</t>
   </si>
   <si>
     <t>濵村 昌則先生</t>
-  </si>
-  <si>
-    <t>入交さん</t>
   </si>
   <si>
     <t>吉田 亜矢子さん</t>
@@ -222,6 +216,23 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>竹内 優希さん</t>
+    <rPh sb="3" eb="5">
+      <t>ユウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入交 那津美さん</t>
+    <rPh sb="3" eb="5">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -732,7 +743,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -765,10 +776,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
@@ -780,10 +791,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
@@ -795,10 +806,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>4</v>
@@ -810,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -827,16 +838,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>21</v>
+      <c r="E6" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -844,10 +855,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>6</v>
@@ -859,10 +870,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
@@ -874,16 +885,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -891,16 +902,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -908,10 +919,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>17</v>
@@ -925,16 +936,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -942,16 +953,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -959,16 +970,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -976,13 +987,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="7"/>
     </row>
@@ -991,7 +1002,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
@@ -1004,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="6_{BF4387CD-E5AA-4A9D-9A8D-82BA5F183361}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{0E320D86-0A49-4603-A9E8-67ADBBFC3146}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F5646-F683-5A44-BD07-95E172B21EEF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="750" windowWidth="8800" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -147,12 +147,6 @@
     <t>高島　歩佳</t>
   </si>
   <si>
-    <t>横田　文</t>
-  </si>
-  <si>
-    <t>北村　陽典</t>
-  </si>
-  <si>
     <t>小松　眞子</t>
   </si>
   <si>
@@ -236,12 +230,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>横田　文</t>
+    <rPh sb="0" eb="2">
+      <t>ヨk</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北村　陽典</t>
+    <rPh sb="0" eb="2">
+      <t>キタムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +293,13 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="MS Mincho"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -398,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +440,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,11 +760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726328AD-67D2-44D0-AF55-CF7AF47CC6F7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -754,7 +772,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" ht="19" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -771,7 +789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" ht="19" thickBot="1">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -786,7 +804,7 @@
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:5" ht="19" thickBot="1">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -801,7 +819,7 @@
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:5" ht="19" thickBot="1">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -816,7 +834,7 @@
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:5" ht="19" thickBot="1">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -833,7 +851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:5" ht="19" thickBot="1">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -847,48 +865,48 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" thickBot="1">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:5" ht="19" thickBot="1">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>12</v>
@@ -897,15 +915,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:5" ht="19" thickBot="1">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -914,15 +932,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" ht="19" thickBot="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>17</v>
@@ -931,15 +949,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:5" ht="19" thickBot="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>22</v>
@@ -948,15 +966,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" ht="19" thickBot="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>23</v>
@@ -965,44 +983,44 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:5" ht="19" thickBot="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:5" ht="19" thickBot="1">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:5" ht="19" thickBot="1">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
@@ -1010,12 +1028,12 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:5" ht="19" thickBot="1">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kusakaizumi/github/Otameshi/Ver4/19/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89F5646-F683-5A44-BD07-95E172B21EEF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="114_{0C214F84-91E1-43B8-8380-33165CDCBF20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{1190F4F2-B1E4-4AFD-86EA-CA3ECACA1337}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>イベント</t>
   </si>
@@ -99,9 +99,6 @@
   </si>
   <si>
     <t>川越 智予さん</t>
-  </si>
-  <si>
-    <t>四宮 有貴先生</t>
   </si>
   <si>
     <t>岩村 聡先生</t>
@@ -249,7 +246,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,13 +290,6 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="MS Mincho"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -413,7 +403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,9 +430,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,11 +747,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726328AD-67D2-44D0-AF55-CF7AF47CC6F7}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -772,7 +759,7 @@
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19" thickBot="1">
+    <row r="1" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -789,60 +776,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" thickBot="1">
+    <row r="2" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" ht="19" thickBot="1">
+    <row r="3" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="1:5" ht="19" thickBot="1">
+    <row r="4" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" spans="1:5" ht="19" thickBot="1">
+    <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>16</v>
@@ -851,62 +838,62 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" thickBot="1">
+    <row r="6" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="19" thickBot="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>57</v>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="1:5" ht="19" thickBot="1">
+    <row r="8" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="7"/>
     </row>
-    <row r="9" spans="1:5" ht="21" customHeight="1" thickBot="1">
+    <row r="9" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>12</v>
@@ -915,15 +902,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" thickBot="1">
+    <row r="10" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>7</v>
@@ -932,15 +919,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" thickBot="1">
+    <row r="11" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>17</v>
@@ -949,15 +936,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" thickBot="1">
+    <row r="12" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>22</v>
@@ -966,15 +953,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" thickBot="1">
+    <row r="13" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>23</v>
@@ -983,44 +970,42 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19" thickBot="1">
+    <row r="14" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19" thickBot="1">
+        <v>53</v>
+      </c>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" ht="19" thickBot="1">
+    <row r="16" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
@@ -1028,12 +1013,12 @@
       </c>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" ht="19" thickBot="1">
+    <row r="17" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="114_{0C214F84-91E1-43B8-8380-33165CDCBF20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{1190F4F2-B1E4-4AFD-86EA-CA3ECACA1337}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="114_{0C214F84-91E1-43B8-8380-33165CDCBF20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{63640D0B-F3E1-489A-BAF5-61759A2A89AC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="8800" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>イベント</t>
   </si>
@@ -178,9 +178,6 @@
     <t>新田　雄一郎</t>
   </si>
   <si>
-    <t>藤田　竜世</t>
-  </si>
-  <si>
     <t>立岩　宇宙</t>
   </si>
   <si>
@@ -239,6 +236,10 @@
     <rPh sb="0" eb="2">
       <t>キタムr</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤田　竜世</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -748,7 +749,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -852,7 +853,7 @@
         <v>5</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -860,10 +861,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>6</v>
@@ -961,7 +962,7 @@
         <v>45</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>23</v>
@@ -975,13 +976,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="D14" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="7"/>
     </row>
@@ -990,10 +991,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>24</v>
@@ -1005,7 +1006,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="7" t="s">
@@ -1018,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="7" t="s">

--- a/Ver4/19/イベント班分け.xlsx
+++ b/Ver4/19/イベント班分け.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hitom\OneDrive\ドキュメント\GitHub\Otameshi\Ver4\19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="114_{0C214F84-91E1-43B8-8380-33165CDCBF20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{63640D0B-F3E1-489A-BAF5-61759A2A89AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC79E65-80AB-49C1-9984-F17250B40487}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="8800" windowHeight="9990" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{DF9136E4-AB77-4D2D-80DC-1D0090307E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
   <si>
     <t>イベント</t>
   </si>
@@ -240,6 +240,19 @@
   </si>
   <si>
     <t>藤田　竜世</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井形 元彦先生</t>
+    <rPh sb="0" eb="2">
+      <t>イガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モトヒコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センセイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -247,7 +260,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +304,12 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="HGP創英ﾌﾟﾚｾﾞﾝｽEB"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -404,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +771,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -820,7 +842,9 @@
       <c r="D4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="6">
@@ -860,7 +884,7 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
